--- a/Shiny Prompt Documentation.xlsx
+++ b/Shiny Prompt Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goetheuniversitaet-my.sharepoint.com/personal/6tnh42ksze_goetheuniversitaet_onmicrosoft_com/Documents/Uni Frankfurt/5. Semester Frankfurt/BA/R/Shiny Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goetheuniversitaet-my.sharepoint.com/personal/6tnh42ksze_goetheuniversitaet_onmicrosoft_com/Documents/Uni Frankfurt/5. Semester Frankfurt/BA/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1508" documentId="11_AD4DB114E441178AC67DF4B8AED1C144693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD1EAF1D-9C05-4A85-8382-9A6F1F9619FB}"/>
+  <xr:revisionPtr revIDLastSave="1513" documentId="11_AD4DB114E441178AC67DF4B8AED1C144693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76907705-EB48-4553-B3F2-D75BE5C0443B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>DataVis Variable choice</t>
-  </si>
-  <si>
-    <t>DataViz Graph Options</t>
   </si>
   <si>
     <t>Reg Choice Variables</t>
@@ -673,9 +670,6 @@
   </si>
   <si>
     <t>Both Text and Key Points</t>
-  </si>
-  <si>
-    <t>Error and text</t>
   </si>
   <si>
     <t>Follow Up Text</t>
@@ -977,6 +971,9 @@
   </si>
   <si>
     <t>Code generation stopped in the middle. New prompt was necessary to continue even though I specified that it should be in only one response.</t>
+  </si>
+  <si>
+    <t>DataVis Graph Options</t>
   </si>
 </sst>
 </file>
@@ -1306,31 +1303,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.453125" defaultRowHeight="60.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="40.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="7" width="7.453125" customWidth="1"/>
+    <col min="3" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="7" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1342,25 +1339,25 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
@@ -1369,40 +1366,40 @@
         <v>9</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R1" t="s">
         <v>10</v>
       </c>
       <c r="S1" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
-        <v>17</v>
-      </c>
       <c r="Z1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1410,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="1">
         <v>45007</v>
@@ -1436,7 +1433,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1482,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1490,10 +1487,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="1">
         <v>45007</v>
@@ -1516,10 +1513,10 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1565,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1573,10 +1570,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="1">
         <v>45007</v>
@@ -1585,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>11</v>
@@ -1599,10 +1596,10 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1648,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1656,10 +1653,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="1">
         <v>45008</v>
@@ -1668,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -1682,10 +1679,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1731,7 +1728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1739,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="1">
         <v>45008</v>
@@ -1751,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -1765,10 +1762,10 @@
         <v>0.5</v>
       </c>
       <c r="L6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1814,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1822,10 +1819,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1">
         <v>45008</v>
@@ -1834,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -1847,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1896,7 +1893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1904,10 +1901,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1">
         <v>45008</v>
@@ -1916,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1930,10 +1927,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1979,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1987,10 +1984,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="1">
         <v>45008</v>
@@ -1999,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2009,7 +2006,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2055,7 +2052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2063,10 +2060,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="1">
         <v>45008</v>
@@ -2075,10 +2072,10 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -2092,7 +2089,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2138,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2146,10 +2143,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="1">
         <v>45008</v>
@@ -2158,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -2175,7 +2172,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2221,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2229,10 +2226,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="1">
         <v>45008</v>
@@ -2241,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12">
         <v>7</v>
@@ -2258,7 +2255,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2304,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2312,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="1">
         <v>45008</v>
@@ -2324,10 +2321,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
       </c>
       <c r="I13">
         <v>7</v>
@@ -2341,7 +2338,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2387,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2395,10 +2392,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="1">
         <v>45008</v>
@@ -2407,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14">
         <v>7</v>
@@ -2421,7 +2418,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2467,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2475,10 +2472,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="1">
         <v>45008</v>
@@ -2487,10 +2484,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
         <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -2504,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2550,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2558,10 +2555,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E16" s="1">
         <v>45008</v>
@@ -2570,10 +2567,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -2586,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2632,7 +2629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2640,10 +2637,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="1">
         <v>45008</v>
@@ -2652,10 +2649,10 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
         <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
       </c>
       <c r="I17">
         <v>13</v>
@@ -2669,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2718,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2726,22 +2723,22 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="1">
         <v>45008</v>
       </c>
       <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>61</v>
-      </c>
-      <c r="H18" t="s">
-        <v>62</v>
       </c>
       <c r="I18">
         <v>13</v>
@@ -2755,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2804,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2812,19 +2809,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E19" s="1">
         <v>45008</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2838,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2884,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2892,22 +2889,22 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E20" s="1">
         <v>45008</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
         <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>66</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2921,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2967,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2975,10 +2972,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="1">
         <v>45008</v>
@@ -2987,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21">
         <v>13</v>
@@ -3001,10 +2998,10 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3050,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3058,10 +3055,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E22" s="1">
         <v>45008</v>
@@ -3070,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -3083,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3126,7 +3123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3134,10 +3131,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E23" s="1">
         <v>45008</v>
@@ -3146,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -3159,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3205,7 +3202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3213,10 +3210,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1">
         <v>45008</v>
@@ -3225,10 +3222,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
         <v>76</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -3241,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -3287,7 +3284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3295,10 +3292,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25" s="1">
         <v>45008</v>
@@ -3307,7 +3304,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -3325,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3333,10 +3330,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E26" s="1">
         <v>45008</v>
@@ -3345,10 +3342,10 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
         <v>79</v>
-      </c>
-      <c r="H26" t="s">
-        <v>80</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -3362,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3408,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3416,10 +3413,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="1">
         <v>45008</v>
@@ -3428,10 +3425,10 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s">
         <v>83</v>
-      </c>
-      <c r="H27" t="s">
-        <v>84</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -3444,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3490,7 +3487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3498,10 +3495,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="1">
         <v>45008</v>
@@ -3510,10 +3507,10 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28">
         <v>6</v>
@@ -3526,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3572,7 +3569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3580,10 +3577,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E29" s="1">
         <v>45008</v>
@@ -3592,10 +3589,10 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -3608,7 +3605,7 @@
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3654,7 +3651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3662,10 +3659,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E30" s="1">
         <v>45008</v>
@@ -3674,10 +3671,10 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3690,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3736,7 +3733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3744,10 +3741,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E31" s="1">
         <v>45008</v>
@@ -3756,10 +3753,10 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -3772,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3818,7 +3815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3826,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E32" s="1">
         <v>45008</v>
@@ -3838,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" t="s">
         <v>99</v>
-      </c>
-      <c r="H32" t="s">
-        <v>100</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -3855,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3865,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3873,10 +3870,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E33" s="1">
         <v>45008</v>
@@ -3885,10 +3882,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" t="s">
         <v>103</v>
-      </c>
-      <c r="H33" t="s">
-        <v>104</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3902,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3912,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3920,10 +3917,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E34" s="1">
         <v>45008</v>
@@ -3932,7 +3929,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34">
         <v>13</v>
@@ -3946,7 +3943,7 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3992,7 +3989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4000,10 +3997,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E35" s="1">
         <v>45008</v>
@@ -4012,7 +4009,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -4025,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4071,7 +4068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4079,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E36" s="1">
         <v>45008</v>
@@ -4091,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -4104,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4150,7 +4147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4158,10 +4155,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E37" s="1">
         <v>45008</v>
@@ -4170,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -4184,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4230,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4238,10 +4235,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1">
         <v>45008</v>
@@ -4250,10 +4247,10 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" t="s">
         <v>117</v>
-      </c>
-      <c r="H38" t="s">
-        <v>118</v>
       </c>
       <c r="I38">
         <v>13</v>
@@ -4267,10 +4264,10 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="L38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4316,7 +4313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4324,10 +4321,10 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E39" s="1">
         <v>45008</v>
@@ -4336,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -4349,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -4395,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4403,10 +4400,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40" s="1">
         <v>45008</v>
@@ -4415,10 +4412,10 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" t="s">
         <v>123</v>
-      </c>
-      <c r="H40" t="s">
-        <v>124</v>
       </c>
       <c r="I40">
         <v>13</v>
@@ -4431,7 +4428,7 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="M40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4477,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4485,10 +4482,10 @@
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E41" s="1">
         <v>45009</v>
@@ -4497,7 +4494,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41">
         <v>13</v>
@@ -4511,10 +4508,10 @@
         <v>0.69230769230769229</v>
       </c>
       <c r="L41" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" t="s">
         <v>126</v>
-      </c>
-      <c r="M41" t="s">
-        <v>127</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -4560,7 +4557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4568,10 +4565,10 @@
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E42" s="1">
         <v>45009</v>
@@ -4580,7 +4577,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -4593,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -4639,7 +4636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4647,10 +4644,10 @@
         <v>14</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E43" s="1">
         <v>45009</v>
@@ -4659,7 +4656,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4672,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -4718,7 +4715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4726,10 +4723,10 @@
         <v>15</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E44" s="1">
         <v>45010</v>
@@ -4738,10 +4735,10 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" t="s">
         <v>132</v>
-      </c>
-      <c r="H44" t="s">
-        <v>133</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -4755,7 +4752,7 @@
         <v>0.75</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -4801,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4809,10 +4806,10 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E45" s="1">
         <v>45010</v>
@@ -4821,10 +4818,10 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" t="s">
         <v>136</v>
-      </c>
-      <c r="H45" t="s">
-        <v>137</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4837,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -4883,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4891,10 +4888,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E46" s="1">
         <v>45010</v>
@@ -4903,10 +4900,10 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" t="s">
         <v>138</v>
-      </c>
-      <c r="H46" t="s">
-        <v>139</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4919,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4962,7 +4959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4970,10 +4967,10 @@
         <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E47" s="1">
         <v>45010</v>
@@ -4982,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -5038,7 +5035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5046,10 +5043,10 @@
         <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E48" s="1">
         <v>45010</v>
@@ -5058,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I48">
         <v>6</v>
@@ -5114,7 +5111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5122,10 +5119,10 @@
         <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E49" s="1">
         <v>45010</v>
@@ -5134,7 +5131,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -5147,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -5193,7 +5190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5201,10 +5198,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E50" s="1">
         <v>45012</v>
@@ -5213,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
@@ -5224,7 +5221,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -5270,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5278,10 +5275,10 @@
         <v>16</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E51" s="1">
         <v>45012</v>
@@ -5290,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
@@ -5301,7 +5298,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -5347,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5355,10 +5352,10 @@
         <v>16</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E52" s="1">
         <v>45012</v>
@@ -5367,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
@@ -5378,7 +5375,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -5424,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5432,10 +5429,10 @@
         <v>16</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E53" s="1">
         <v>45012</v>
@@ -5444,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
@@ -5455,7 +5452,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -5501,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5509,10 +5506,10 @@
         <v>17</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E54" s="1">
         <v>45012</v>
@@ -5521,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -5535,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -5581,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5589,10 +5586,10 @@
         <v>17</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E55" s="1">
         <v>45012</v>
@@ -5611,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -5657,7 +5654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5665,10 +5662,10 @@
         <v>17</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E56" s="1">
         <v>45012</v>
@@ -5687,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -5733,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5741,10 +5738,10 @@
         <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57" s="1">
         <v>45014</v>
@@ -5753,10 +5750,10 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -5813,7 +5810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5821,10 +5818,10 @@
         <v>18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E58" s="1">
         <v>45014</v>
@@ -5833,10 +5830,10 @@
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5892,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5900,10 +5897,10 @@
         <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E59" s="1">
         <v>45014</v>
@@ -5912,10 +5909,10 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5968,7 +5965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5976,10 +5973,10 @@
         <v>18</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E60" s="1">
         <v>45014</v>
@@ -5988,10 +5985,10 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -6044,7 +6041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6052,10 +6049,10 @@
         <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E61" s="1">
         <v>45014</v>
@@ -6064,10 +6061,10 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -6120,7 +6117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6128,10 +6125,10 @@
         <v>18</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E62" s="1">
         <v>45014</v>
@@ -6140,10 +6137,10 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -6196,7 +6193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6204,10 +6201,10 @@
         <v>18</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E63" s="1">
         <v>45014</v>
@@ -6216,10 +6213,10 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6272,7 +6269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6280,10 +6277,10 @@
         <v>18</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E64" s="1">
         <v>45014</v>
@@ -6292,10 +6289,10 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I64">
         <v>5</v>
@@ -6348,7 +6345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6356,10 +6353,10 @@
         <v>18</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E65" s="1">
         <v>45014</v>
@@ -6368,10 +6365,10 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -6424,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6432,10 +6429,10 @@
         <v>18</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E66" s="1">
         <v>45014</v>
@@ -6444,10 +6441,10 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6500,7 +6497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6508,10 +6505,10 @@
         <v>18</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E67" s="1">
         <v>45014</v>
@@ -6520,10 +6517,10 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" t="s">
         <v>165</v>
-      </c>
-      <c r="H67" t="s">
-        <v>166</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -6579,7 +6576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6587,10 +6584,10 @@
         <v>19</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E68" s="1">
         <v>45014</v>
@@ -6599,10 +6596,10 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
+        <v>174</v>
+      </c>
+      <c r="H68" t="s">
         <v>175</v>
-      </c>
-      <c r="H68" t="s">
-        <v>176</v>
       </c>
       <c r="I68">
         <v>2</v>
@@ -6659,7 +6656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6667,10 +6664,10 @@
         <v>20</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E69" s="1">
         <v>45014</v>
@@ -6679,10 +6676,10 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H69" t="s">
         <v>178</v>
-      </c>
-      <c r="H69" t="s">
-        <v>179</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6738,7 +6735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6746,10 +6743,10 @@
         <v>21</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E70" s="1">
         <v>45015</v>
@@ -6758,10 +6755,10 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J70">
         <f t="shared" si="5"/>
@@ -6776,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6784,10 +6781,10 @@
         <v>21</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E71" s="1">
         <v>45015</v>
@@ -6796,7 +6793,7 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -6849,7 +6846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6857,10 +6854,10 @@
         <v>21</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E72" s="1">
         <v>45015</v>
@@ -6869,10 +6866,10 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
+        <v>185</v>
+      </c>
+      <c r="H72" t="s">
         <v>186</v>
-      </c>
-      <c r="H72" t="s">
-        <v>187</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6890,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6898,10 +6895,10 @@
         <v>21</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E73" s="1">
         <v>45015</v>
@@ -6910,10 +6907,10 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
+        <v>187</v>
+      </c>
+      <c r="H73" t="s">
         <v>188</v>
-      </c>
-      <c r="H73" t="s">
-        <v>189</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -6931,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6939,10 +6936,10 @@
         <v>21</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E74" s="1">
         <v>45015</v>
@@ -6951,7 +6948,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -6969,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6977,10 +6974,10 @@
         <v>21</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E75" s="1">
         <v>45015</v>
@@ -6989,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7007,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7015,10 +7012,10 @@
         <v>21</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" s="1">
         <v>45015</v>
@@ -7027,10 +7024,10 @@
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7048,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7056,10 +7053,10 @@
         <v>21</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E77" s="1">
         <v>45015</v>
@@ -7068,10 +7065,10 @@
         <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J77">
         <f t="shared" si="5"/>
